--- a/Documents/UndergroundHero Data.xlsx
+++ b/Documents/UndergroundHero Data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="49">
   <si>
     <t>LOCKED</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>WILD HYENA</t>
+  </si>
+  <si>
+    <t>The Laser Hallway Solved</t>
   </si>
 </sst>
 </file>
@@ -290,16 +293,19 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:I1048576" totalsRowShown="0" dataDxfId="9">
   <autoFilter ref="A1:I1048576"/>
+  <sortState ref="A2:I57">
+    <sortCondition ref="B1:B1048576"/>
+  </sortState>
   <tableColumns count="9">
     <tableColumn id="1" name="ROOM NUM" dataDxfId="8"/>
     <tableColumn id="2" name="LOCKED" dataDxfId="7"/>
     <tableColumn id="6" name="LOCK SOLUTION" dataDxfId="6"/>
     <tableColumn id="3" name="ROOM MONSTER" dataDxfId="5"/>
-    <tableColumn id="12" name="MONSTER LOOT" dataDxfId="0"/>
+    <tableColumn id="12" name="MONSTER LOOT" dataDxfId="4"/>
     <tableColumn id="5" name="ROOM ITEM" dataDxfId="3"/>
-    <tableColumn id="4" name="ROOM PUZZLE" dataDxfId="4"/>
-    <tableColumn id="8" name="PUZZLE SOLUTION" dataDxfId="2"/>
-    <tableColumn id="11" name="PUZZLE REWARD" dataDxfId="1"/>
+    <tableColumn id="4" name="ROOM PUZZLE" dataDxfId="2"/>
+    <tableColumn id="8" name="PUZZLE SOLUTION" dataDxfId="1"/>
+    <tableColumn id="11" name="PUZZLE REWARD" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -595,14 +601,14 @@
   <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -643,7 +649,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="b">
         <v>0</v>
@@ -669,7 +675,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="b">
         <v>0</v>
@@ -695,7 +701,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="b">
         <v>0</v>
@@ -721,7 +727,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="b">
         <v>0</v>
@@ -747,7 +753,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="b">
         <v>0</v>
@@ -773,7 +779,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="b">
         <v>0</v>
@@ -787,8 +793,8 @@
       <c r="F7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>25</v>
+      <c r="G7" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>25</v>
@@ -851,25 +857,25 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>25</v>
+      <c r="F10" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>25</v>
@@ -877,13 +883,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>25</v>
+      <c r="D11" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>25</v>
@@ -891,25 +897,22 @@
       <c r="F11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>22</v>
+      <c r="G11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>46</v>
@@ -932,7 +935,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1" t="b">
         <v>0</v>
@@ -958,44 +961,44 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="2">
-        <v>4213</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>23</v>
+      <c r="F14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>46</v>
+      <c r="D15" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -1008,27 +1011,27 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>46</v>
+        <v>22</v>
+      </c>
+      <c r="B16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>26</v>
+      <c r="F16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>25</v>
@@ -1036,18 +1039,18 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>46</v>
+      <c r="D17" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -1062,25 +1065,25 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B18" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>46</v>
+      <c r="D18" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="2">
-        <v>213</v>
+      <c r="F18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>25</v>
@@ -1088,19 +1091,19 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B19" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>21</v>
+        <v>6</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>25</v>
@@ -1114,13 +1117,13 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B20" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>3</v>
+      <c r="D20" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>25</v>
@@ -1138,18 +1141,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="B21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>25</v>
@@ -1169,13 +1169,13 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B22" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>25</v>
+      <c r="D22" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>25</v>
@@ -1195,13 +1195,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B23" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>25</v>
+      <c r="D23" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>25</v>
@@ -1209,25 +1209,25 @@
       <c r="F23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>37</v>
+      <c r="G23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B24" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>25</v>
+      <c r="D24" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>25</v>
@@ -1247,13 +1247,13 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B25" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>25</v>
+      <c r="D25" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>25</v>
@@ -1273,13 +1273,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B26" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>25</v>
+      <c r="D26" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>25</v>
@@ -1299,16 +1299,16 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B27" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>25</v>
@@ -1325,13 +1325,13 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B28" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>25</v>
+      <c r="D28" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>25</v>
@@ -1351,83 +1351,77 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B29" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>25</v>
+      <c r="D29" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
+      </c>
+      <c r="B30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>40</v>
+        <v>16</v>
+      </c>
+      <c r="B31" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>25</v>
+      <c r="F31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="2">
+        <v>213</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>25</v>
@@ -1435,39 +1429,39 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B32" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>25</v>
+      <c r="F32" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="2">
+        <v>4213</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B33" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>47</v>
+      <c r="D33" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>25</v>
@@ -1475,25 +1469,25 @@
       <c r="F33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>25</v>
+      <c r="G33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B34" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>47</v>
+      <c r="D34" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>25</v>
@@ -1501,14 +1495,14 @@
       <c r="F34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>25</v>
+      <c r="G34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1537,49 +1531,49 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
+        <v>40</v>
+      </c>
+      <c r="B36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="4" t="b">
+      <c r="I36" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>10</v>
+      </c>
+      <c r="B37" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" s="1" t="b">
-        <v>0</v>
+      <c r="C37" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="5" t="s">
         <v>25</v>
       </c>
       <c r="G37" s="1" t="s">
@@ -1592,15 +1586,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>47</v>
+        <v>19</v>
+      </c>
+      <c r="B38" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>25</v>
@@ -1618,18 +1615,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" s="1" t="b">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="B39" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>25</v>
@@ -1644,12 +1644,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" s="1" t="b">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="B40" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>47</v>
@@ -1670,12 +1673,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" s="1" t="b">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="B41" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>47</v>
@@ -1696,15 +1702,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" s="1" t="b">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>25</v>
@@ -1712,33 +1721,33 @@
       <c r="F42" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B43" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>41</v>
+      <c r="C43" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="5" t="s">
         <v>25</v>
       </c>
       <c r="G43" s="1" t="s">
